--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.8654498713939045</v>
+        <v>8.8654498706366969</v>
       </c>
       <c r="C2">
-        <v>7.2731541356231038</v>
+        <v>7.2731541403014894</v>
       </c>
       <c r="D2">
-        <v>7.5474303184459179</v>
+        <v>7.5474303205935609</v>
       </c>
       <c r="E2">
-        <v>6.3829356138579758</v>
+        <v>6.3829356113666096</v>
       </c>
       <c r="F2">
-        <v>5.3543946835601766</v>
+        <v>5.3543946835140082</v>
       </c>
       <c r="G2">
-        <v>8.8554401190563414</v>
+        <v>8.8554401245478633</v>
       </c>
       <c r="H2">
-        <v>4.4152351890390342</v>
+        <v>4.4152351967730468</v>
       </c>
       <c r="I2">
-        <v>5.9679610103077909</v>
+        <v>5.9679610094812698</v>
       </c>
       <c r="J2">
-        <v>7.462515843329534</v>
+        <v>7.4625158423391564</v>
       </c>
       <c r="K2">
-        <v>8.0637325300788749</v>
+        <v>8.0637325325911444</v>
       </c>
       <c r="L2">
-        <v>10.994435928742242</v>
+        <v>10.994435942165612</v>
       </c>
       <c r="M2">
-        <v>8.0936633274956851</v>
+        <v>8.0936633344175224</v>
       </c>
       <c r="N2">
-        <v>6.4381644256757546</v>
+        <v>6.4381644307248687</v>
       </c>
       <c r="O2">
-        <v>4.0151328615562072</v>
+        <v>4.0151328560714683</v>
       </c>
       <c r="P2">
-        <v>5.0125269324519701</v>
+        <v>5.0125269385726172</v>
       </c>
       <c r="Q2">
-        <v>9.7440345101174586</v>
+        <v>9.7440345119428446</v>
       </c>
       <c r="R2">
-        <v>6.040772637774853</v>
+        <v>6.0407726312651349</v>
       </c>
       <c r="S2">
-        <v>4.0235266166085948</v>
+        <v>4.0235266541557424</v>
       </c>
       <c r="T2">
-        <v>2.9867818151829417</v>
+        <v>2.9867818137253677</v>
       </c>
       <c r="U2">
-        <v>7.3709120088838498</v>
+        <v>7.3709120127868886</v>
       </c>
       <c r="V2">
-        <v>5.5780625341110239</v>
+        <v>5.5780625345477626</v>
       </c>
       <c r="W2">
-        <v>8.2549831798110027</v>
+        <v>8.2549832037203661</v>
       </c>
       <c r="X2">
-        <v>8.4351898965838092</v>
+        <v>8.4351898945830879</v>
       </c>
       <c r="Y2">
-        <v>1.9865364875964857</v>
+        <v>1.9865364914806078</v>
       </c>
       <c r="Z2">
-        <v>4.4691992195940022</v>
+        <v>4.4691992251059336</v>
       </c>
       <c r="AA2">
-        <v>6.2775578850115377</v>
+        <v>6.2775578651064254</v>
       </c>
       <c r="AB2">
-        <v>6.5100671344148751</v>
+        <v>6.510067147792352</v>
       </c>
       <c r="AC2">
-        <v>9.5046972609643525</v>
+        <v>9.5046972710666502</v>
       </c>
       <c r="AD2">
-        <v>4.5709807910236284</v>
+        <v>4.5709808026497454</v>
       </c>
       <c r="AE2">
-        <v>7.9607956570447964</v>
+        <v>7.9607956576226364</v>
       </c>
       <c r="AF2">
-        <v>5.2880626031227926</v>
+        <v>5.2880626111399103</v>
       </c>
       <c r="AG2">
-        <v>5.4464650811133906</v>
+        <v>5.446465091489193</v>
       </c>
       <c r="AH2">
-        <v>3.85051130012801</v>
+        <v>3.8505113052142539</v>
       </c>
       <c r="AI2">
-        <v>6.6923195385581504</v>
+        <v>6.6923195844563894</v>
       </c>
       <c r="AJ2">
-        <v>6.0288873018333806</v>
+        <v>6.0288873106433121</v>
       </c>
       <c r="AK2">
-        <v>7.4236088344431499</v>
+        <v>7.423608839265107</v>
       </c>
       <c r="AL2">
-        <v>9.3303346092667923</v>
+        <v>9.3303346190977976</v>
       </c>
       <c r="AM2">
-        <v>4.1416649172073745</v>
+        <v>4.1416649407512338</v>
       </c>
       <c r="AN2">
-        <v>5.0345668048321448</v>
+        <v>5.0345668152885965</v>
       </c>
       <c r="AO2">
-        <v>3.3626837945916761</v>
+        <v>3.3626837635685365</v>
       </c>
       <c r="AP2">
-        <v>3.5965828928546162</v>
+        <v>3.5965828994599658</v>
       </c>
       <c r="AQ2">
-        <v>6.964318113814584</v>
+        <v>6.9643181317420604</v>
       </c>
       <c r="AR2">
-        <v>3.7551717221748881</v>
+        <v>3.7551717110799543</v>
       </c>
       <c r="AS2">
-        <v>4.2766930605305742</v>
+        <v>4.2766930778397665</v>
       </c>
       <c r="AT2">
-        <v>5.1796677057486225</v>
+        <v>5.179667680846169</v>
       </c>
       <c r="AU2">
-        <v>3.7074359252975366</v>
+        <v>3.7074359385975511</v>
       </c>
       <c r="AV2">
-        <v>4.9002704814192732</v>
+        <v>4.9002704734767262</v>
       </c>
       <c r="AW2">
-        <v>6.4895229549261249</v>
+        <v>6.4895229844879472</v>
       </c>
       <c r="AX2">
-        <v>5.1359324863699696</v>
+        <v>5.1359325028387106</v>
       </c>
       <c r="AY2">
-        <v>2.4313897430964402</v>
+        <v>2.4313897544566054</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.3278837324539836</v>
+        <v>8.3278837677214561</v>
       </c>
       <c r="C3">
-        <v>8.2064912688527425</v>
+        <v>8.2064912711928191</v>
       </c>
       <c r="D3">
-        <v>3.9512038863513421</v>
+        <v>3.9512039103679006</v>
       </c>
       <c r="E3">
-        <v>4.645870117803458</v>
+        <v>4.6458701219984198</v>
       </c>
       <c r="F3">
-        <v>5.9509270927752986</v>
+        <v>5.9509270979302045</v>
       </c>
       <c r="G3">
-        <v>5.3526185017393955</v>
+        <v>5.352618506039466</v>
       </c>
       <c r="H3">
-        <v>8.1856608155619384</v>
+        <v>8.1856608130568809</v>
       </c>
       <c r="I3">
-        <v>5.9881652584500547</v>
+        <v>5.9881652614704244</v>
       </c>
       <c r="J3">
-        <v>6.0494249681215271</v>
+        <v>6.0494249800304782</v>
       </c>
       <c r="K3">
-        <v>-0.52710051046146578</v>
+        <v>-0.52710050912792383</v>
       </c>
       <c r="L3">
-        <v>5.1623515297128328</v>
+        <v>5.162351535737562</v>
       </c>
       <c r="M3">
-        <v>8.1582305134940629</v>
+        <v>8.1583307701489787</v>
       </c>
       <c r="N3">
-        <v>5.4026204835051583</v>
+        <v>5.4026204843154222</v>
       </c>
       <c r="O3">
-        <v>7.9100084573880309</v>
+        <v>7.9100084579715357</v>
       </c>
       <c r="P3">
-        <v>4.6052027761657266</v>
+        <v>4.6052027859865881</v>
       </c>
       <c r="Q3">
-        <v>4.7622915814597739</v>
+        <v>4.7622915888094353</v>
       </c>
       <c r="R3">
-        <v>7.7340340627631985</v>
+        <v>7.7340340866256723</v>
       </c>
       <c r="S3">
-        <v>3.120700819737749</v>
+        <v>3.120700826740618</v>
       </c>
       <c r="T3">
-        <v>3.8960912947743647</v>
+        <v>3.8960913007010802</v>
       </c>
       <c r="U3">
-        <v>4.6125830460614452</v>
+        <v>4.6125830541788444</v>
       </c>
       <c r="V3">
-        <v>3.39029499006964</v>
+        <v>3.3902949885340741</v>
       </c>
       <c r="W3">
-        <v>5.3768573507126343</v>
+        <v>5.3768573612113579</v>
       </c>
       <c r="X3">
-        <v>8.095222087643581</v>
+        <v>8.0952220915558755</v>
       </c>
       <c r="Y3">
-        <v>1.1201604143631683</v>
+        <v>1.1201604266616076</v>
       </c>
       <c r="Z3">
-        <v>2.5572456128698668</v>
+        <v>2.5572456181174741</v>
       </c>
       <c r="AA3">
-        <v>6.6761882874954255</v>
+        <v>6.6761882834997639</v>
       </c>
       <c r="AB3">
-        <v>6.3033198580866756</v>
+        <v>6.3033198698030715</v>
       </c>
       <c r="AC3">
-        <v>7.3597096723402133</v>
+        <v>7.3597096994712414</v>
       </c>
       <c r="AD3">
-        <v>5.8748026331350021</v>
+        <v>5.8748026648366984</v>
       </c>
       <c r="AE3">
-        <v>5.8524070831683384</v>
+        <v>5.8524071069181689</v>
       </c>
       <c r="AF3">
-        <v>7.3492969162875097</v>
+        <v>7.3492969327357187</v>
       </c>
       <c r="AG3">
-        <v>6.9752283813531211</v>
+        <v>6.9752283904525116</v>
       </c>
       <c r="AH3">
-        <v>7.3655358377372169</v>
+        <v>7.3655358444819079</v>
       </c>
       <c r="AI3">
-        <v>2.2640199755164638</v>
+        <v>2.2640202471910142</v>
       </c>
       <c r="AJ3">
-        <v>5.6753666091020349</v>
+        <v>5.6753666279740766</v>
       </c>
       <c r="AK3">
-        <v>8.7842720902538112</v>
+        <v>8.7842721279851386</v>
       </c>
       <c r="AL3">
-        <v>5.6458228252270874</v>
+        <v>5.6458228401559092</v>
       </c>
       <c r="AM3">
-        <v>4.0442631399649915</v>
+        <v>4.0442631587009723</v>
       </c>
       <c r="AN3">
-        <v>10.426703200024773</v>
+        <v>10.426703205271815</v>
       </c>
       <c r="AO3">
-        <v>4.9392106248346561</v>
+        <v>4.9392106701275083</v>
       </c>
       <c r="AP3">
-        <v>5.43774964306259</v>
+        <v>5.4377496506968024</v>
       </c>
       <c r="AQ3">
-        <v>4.4533256641566457</v>
+        <v>4.4533256727732065</v>
       </c>
       <c r="AR3">
-        <v>3.1775526101112952</v>
+        <v>3.1775525991108506</v>
       </c>
       <c r="AS3">
-        <v>6.7880592591736955</v>
+        <v>6.7880592554722483</v>
       </c>
       <c r="AT3">
-        <v>3.0901185305037515</v>
+        <v>3.0901185509130071</v>
       </c>
       <c r="AU3">
-        <v>6.7230026252939474</v>
+        <v>6.7230026469247974</v>
       </c>
       <c r="AV3">
-        <v>5.874961730002787</v>
+        <v>5.8749617519165254</v>
       </c>
       <c r="AW3">
-        <v>8.3161714802341251</v>
+        <v>8.316171704519304</v>
       </c>
       <c r="AX3">
-        <v>7.5274658567000703</v>
+        <v>7.5274659122714915</v>
       </c>
       <c r="AY3">
-        <v>1.5031969168016626</v>
+        <v>1.5031969281304229</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>8.8654498706366969</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.2731541403014894</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.5474303205935609</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.3829356113666096</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.3543946835140082</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.8554401245478633</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.4152351967730468</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.9679610094812698</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.4625158423391564</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.0637325325911444</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10.994435942165612</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.0936633344175224</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.4381644307248687</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.0151328560714683</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.0125269385726172</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.7440345119428446</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.0407726312651349</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.0235266541557424</v>
+        <v>5.9302816132731548</v>
       </c>
       <c r="T2">
         <v>2.9867818137253677</v>
@@ -588,55 +477,55 @@
         <v>4.4691992251059336</v>
       </c>
       <c r="AA2">
-        <v>6.2775578651064254</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.510067147792352</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.5046972710666502</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.5709808026497454</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.9607956576226364</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.2880626111399103</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.446465091489193</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.8505113052142539</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>6.6923195844563894</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.0288873106433121</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.423608839265107</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.3303346190977976</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.1416649407512338</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.0345668152885965</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.3626837635685365</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.5965828994599658</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.9643181317420604</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.7551717110799543</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.3278837677214561</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.2064912711928191</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.9512039103679006</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.6458701219984198</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9509270979302045</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.352618506039466</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.1856608130568809</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.9881652614704244</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.0494249800304782</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.52710050912792383</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.162351535737562</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.1583307701489787</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.4026204843154222</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.9100084579715357</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.6052027859865881</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.7622915888094353</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.7340340866256723</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.120700826740618</v>
@@ -743,55 +629,55 @@
         <v>2.5572456181174741</v>
       </c>
       <c r="AA3">
-        <v>6.6761882834997639</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.3033198698030715</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.3597096994712414</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.8748026648366984</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.8524071069181689</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.3492969327357187</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.9752283904525116</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.3655358444819079</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.2640202471910142</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.6753666279740766</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.7842721279851386</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.6458228401559092</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.0442631587009723</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.426703205271815</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.9392106701275083</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.4377496506968024</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>4.4533256727732065</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>3.1775525991108506</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8.8654498713939045</v>
-      </c>
       <c r="C2">
-        <v>7.8787085035961368</v>
-      </c>
-      <c r="D2">
-        <v>7.5474303184459179</v>
-      </c>
-      <c r="E2">
-        <v>6.3829356138579758</v>
+        <v>6.0407726312651349</v>
       </c>
       <c r="F2">
         <v>5.3543946835601766</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.3278837324539836</v>
+        <v>6.3751365426387139</v>
       </c>
       <c r="C3">
-        <v>8.2064912688527425</v>
+        <v>7.7340340866256723</v>
       </c>
       <c r="D3">
-        <v>3.9512038863513421</v>
+        <v>9.9670937305617571</v>
       </c>
       <c r="E3">
-        <v>4.645870117803458</v>
+        <v>4.4125299748362021</v>
       </c>
       <c r="F3">
         <v>5.9509270927752986</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.8654498713939045</v>
-      </c>
-      <c r="C2">
-        <v>7.8787085035961368</v>
+        <v>6.5925963874547371</v>
       </c>
       <c r="D2">
-        <v>7.5474303184459179</v>
-      </c>
-      <c r="E2">
-        <v>6.3829356138579758</v>
+        <v>4.1416649407512338</v>
       </c>
       <c r="F2">
         <v>5.3543946835601766</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.3278837324539836</v>
+        <v>5.4026204843154222</v>
       </c>
       <c r="C3">
-        <v>8.2064912688527425</v>
+        <v>6.3751365426387139</v>
       </c>
       <c r="D3">
-        <v>3.9512038863513421</v>
+        <v>4.0442631587009723</v>
       </c>
       <c r="E3">
-        <v>3.3027255904894242</v>
+        <v>9.9670937305617571</v>
       </c>
       <c r="F3">
         <v>5.9509270927752986</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.8654498706366969</v>
+      </c>
+      <c r="C2">
+        <v>7.8787085218442003</v>
+      </c>
+      <c r="D2">
+        <v>7.5474303205935609</v>
+      </c>
+      <c r="E2">
+        <v>6.3829356113666096</v>
+      </c>
+      <c r="F2">
+        <v>5.3543946835140082</v>
+      </c>
+      <c r="G2">
+        <v>7.7867046810289429</v>
+      </c>
+      <c r="H2">
+        <v>4.4152351967730468</v>
+      </c>
+      <c r="I2">
+        <v>5.010246352113044</v>
+      </c>
+      <c r="J2">
+        <v>7.4625158423391564</v>
+      </c>
+      <c r="K2">
+        <v>8.0637325325911444</v>
+      </c>
+      <c r="L2">
+        <v>10.270537361491973</v>
+      </c>
+      <c r="M2">
+        <v>6.4643455396325145</v>
+      </c>
+      <c r="N2">
         <v>6.5925963874547371</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.6557632378795102</v>
+      </c>
+      <c r="Q2">
+        <v>9.7440345119428446</v>
+      </c>
+      <c r="R2">
+        <v>6.0407726312651349</v>
+      </c>
+      <c r="T2">
+        <v>3.6022601918402661</v>
+      </c>
+      <c r="U2">
+        <v>7.3709120127868886</v>
+      </c>
+      <c r="V2">
+        <v>4.8450732259930653</v>
+      </c>
+      <c r="W2">
+        <v>8.2549832037203661</v>
+      </c>
+      <c r="X2">
+        <v>8.4351898945830879</v>
+      </c>
+      <c r="Y2">
+        <v>1.9865364914806078</v>
+      </c>
+      <c r="Z2">
+        <v>4.4691992251059336</v>
+      </c>
+      <c r="AA2">
+        <v>6.2775578651064254</v>
+      </c>
+      <c r="AB2">
+        <v>6.510067147792352</v>
+      </c>
+      <c r="AC2">
+        <v>9.5046972710666502</v>
+      </c>
+      <c r="AD2">
+        <v>4.5709808026497454</v>
+      </c>
+      <c r="AE2">
+        <v>7.9607956576226364</v>
+      </c>
+      <c r="AF2">
+        <v>5.2880626111399103</v>
+      </c>
+      <c r="AG2">
+        <v>5.446465091489193</v>
+      </c>
+      <c r="AH2">
+        <v>3.8505113052142539</v>
+      </c>
+      <c r="AI2">
+        <v>6.6923195844563894</v>
+      </c>
+      <c r="AJ2">
+        <v>6.0288873106433121</v>
+      </c>
+      <c r="AK2">
+        <v>7.423608839265107</v>
+      </c>
+      <c r="AL2">
+        <v>9.3303346190977976</v>
+      </c>
+      <c r="AM2">
         <v>4.1416649407512338</v>
       </c>
-      <c r="F2">
-        <v>5.3543946835601766</v>
-      </c>
-      <c r="G2">
-        <v>7.7867046649279725</v>
-      </c>
-      <c r="H2">
-        <v>4.4152351890390342</v>
-      </c>
-      <c r="I2">
-        <v>5.0102463544351226</v>
-      </c>
-      <c r="J2">
-        <v>7.462515843329534</v>
-      </c>
-      <c r="K2">
-        <v>8.0637325300788749</v>
-      </c>
-      <c r="L2">
-        <v>10.270537283493603</v>
-      </c>
-      <c r="M2">
-        <v>6.4643455376703578</v>
-      </c>
-      <c r="N2">
-        <v>6.5925963799257579</v>
-      </c>
-      <c r="P2">
-        <v>4.655763228135477</v>
-      </c>
-      <c r="Q2">
-        <v>9.7440345101174586</v>
-      </c>
-      <c r="R2">
-        <v>6.040772637774853</v>
-      </c>
-      <c r="T2">
-        <v>3.6022601934426564</v>
-      </c>
-      <c r="U2">
-        <v>7.3709120088838498</v>
-      </c>
-      <c r="V2">
-        <v>4.8450732241888179</v>
-      </c>
-      <c r="W2">
-        <v>8.2549831798110027</v>
-      </c>
-      <c r="X2">
-        <v>8.4351898965838092</v>
-      </c>
-      <c r="Y2">
-        <v>1.9865364875964857</v>
-      </c>
-      <c r="Z2">
-        <v>4.4691992195940022</v>
-      </c>
-      <c r="AA2">
-        <v>6.2775578850115377</v>
-      </c>
-      <c r="AB2">
-        <v>6.5100671344148751</v>
-      </c>
-      <c r="AC2">
-        <v>9.5046972609643525</v>
-      </c>
-      <c r="AD2">
-        <v>4.5709807910236284</v>
-      </c>
-      <c r="AE2">
-        <v>7.9607956570447964</v>
-      </c>
-      <c r="AF2">
-        <v>5.2880626031227926</v>
-      </c>
-      <c r="AG2">
-        <v>5.4464650811133906</v>
-      </c>
-      <c r="AH2">
-        <v>3.85051130012801</v>
-      </c>
-      <c r="AI2">
-        <v>6.6923195385581504</v>
-      </c>
-      <c r="AJ2">
-        <v>6.0288873018333806</v>
-      </c>
-      <c r="AK2">
-        <v>7.4236088344431499</v>
-      </c>
-      <c r="AL2">
-        <v>9.3303346092667923</v>
-      </c>
-      <c r="AM2">
-        <v>4.1416649172073745</v>
-      </c>
       <c r="AO2">
-        <v>3.3626837945916761</v>
+        <v>3.3626837635685365</v>
       </c>
       <c r="AP2">
-        <v>3.1224073544767883</v>
+        <v>3.1224073631666136</v>
       </c>
       <c r="AR2">
-        <v>3.7551717221748881</v>
+        <v>3.7551717110799543</v>
       </c>
       <c r="AS2">
-        <v>4.2766930605305742</v>
+        <v>4.2766930778397665</v>
       </c>
       <c r="AT2">
-        <v>5.1796677057486225</v>
+        <v>5.179667680846169</v>
       </c>
       <c r="AU2">
-        <v>5.0446463001867405</v>
+        <v>5.0446463298753716</v>
       </c>
       <c r="AV2">
-        <v>4.9002704814192732</v>
+        <v>4.9002704734767262</v>
       </c>
       <c r="AW2">
-        <v>6.4895229549261249</v>
+        <v>6.4895229844879472</v>
       </c>
       <c r="AX2">
-        <v>5.1359324863699696</v>
+        <v>5.1359325028387106</v>
       </c>
       <c r="AY2">
-        <v>2.4313897430964402</v>
+        <v>2.4313897544566054</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.3278837677214561</v>
+      </c>
+      <c r="C3">
+        <v>8.2064912711928191</v>
+      </c>
+      <c r="D3">
+        <v>3.9512039103679006</v>
+      </c>
+      <c r="E3">
+        <v>3.3027255997463012</v>
+      </c>
+      <c r="F3">
+        <v>5.9509270979302045</v>
+      </c>
+      <c r="G3">
+        <v>5.352618506039466</v>
+      </c>
+      <c r="H3">
+        <v>8.1856608130568809</v>
+      </c>
+      <c r="I3">
+        <v>5.9881652614704244</v>
+      </c>
+      <c r="J3">
+        <v>6.0494249800304782</v>
+      </c>
+      <c r="K3">
+        <v>0.24142363046194712</v>
+      </c>
+      <c r="L3">
+        <v>5.162351535737562</v>
+      </c>
+      <c r="M3">
+        <v>8.9245620416985805</v>
+      </c>
+      <c r="N3">
         <v>5.4026204843154222</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.3751365426387139</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.6052027859865881</v>
+      </c>
+      <c r="Q3">
+        <v>4.7622915888094353</v>
+      </c>
+      <c r="R3">
+        <v>7.7340340866256723</v>
+      </c>
+      <c r="S3">
+        <v>3.120700826740618</v>
+      </c>
+      <c r="T3">
+        <v>3.8960913007010802</v>
+      </c>
+      <c r="U3">
+        <v>4.6125830541788444</v>
+      </c>
+      <c r="V3">
+        <v>2.9871466514502671</v>
+      </c>
+      <c r="W3">
+        <v>5.3799678718058015</v>
+      </c>
+      <c r="X3">
+        <v>8.0952220915558755</v>
+      </c>
+      <c r="Y3">
+        <v>1.1201604266616076</v>
+      </c>
+      <c r="Z3">
+        <v>2.5572456181174741</v>
+      </c>
+      <c r="AA3">
+        <v>6.6761882834997639</v>
+      </c>
+      <c r="AB3">
+        <v>6.3033198698030715</v>
+      </c>
+      <c r="AC3">
+        <v>7.3597096994712414</v>
+      </c>
+      <c r="AD3">
+        <v>5.8748026648366984</v>
+      </c>
+      <c r="AE3">
+        <v>5.8524071069181689</v>
+      </c>
+      <c r="AF3">
+        <v>7.3492969327357187</v>
+      </c>
+      <c r="AG3">
+        <v>6.9752283904525116</v>
+      </c>
+      <c r="AH3">
+        <v>7.3655358444819079</v>
+      </c>
+      <c r="AI3">
+        <v>8.0344280824915817</v>
+      </c>
+      <c r="AJ3">
+        <v>5.6753666279740766</v>
+      </c>
+      <c r="AK3">
+        <v>8.7842721279851386</v>
+      </c>
+      <c r="AL3">
+        <v>5.6458228401559092</v>
+      </c>
+      <c r="AM3">
         <v>4.0442631587009723</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>9.9670937305617571</v>
       </c>
-      <c r="F3">
-        <v>5.9509270927752986</v>
-      </c>
-      <c r="G3">
-        <v>5.3526185017393955</v>
-      </c>
-      <c r="H3">
-        <v>8.1856608155619384</v>
-      </c>
-      <c r="I3">
-        <v>5.9881652584500547</v>
-      </c>
-      <c r="J3">
-        <v>6.0494249681215271</v>
-      </c>
-      <c r="K3">
-        <v>0.24142362988723459</v>
-      </c>
-      <c r="L3">
-        <v>5.1623515297128328</v>
-      </c>
-      <c r="M3">
-        <v>8.9245191280191687</v>
-      </c>
-      <c r="N3">
-        <v>5.4026204835051583</v>
-      </c>
-      <c r="O3">
-        <v>6.3751365421499724</v>
-      </c>
-      <c r="P3">
-        <v>4.6052027761657266</v>
-      </c>
-      <c r="Q3">
-        <v>4.7622915814597739</v>
-      </c>
-      <c r="R3">
-        <v>7.7340340627631985</v>
-      </c>
-      <c r="S3">
-        <v>3.120700819737749</v>
-      </c>
-      <c r="T3">
-        <v>3.8960912947743647</v>
-      </c>
-      <c r="U3">
-        <v>4.6125830460614452</v>
-      </c>
-      <c r="V3">
-        <v>2.9871466822042931</v>
-      </c>
-      <c r="W3">
-        <v>5.3799678707214351</v>
-      </c>
-      <c r="X3">
-        <v>8.095222087643581</v>
-      </c>
-      <c r="Y3">
-        <v>1.1201604143631683</v>
-      </c>
-      <c r="Z3">
-        <v>2.5572456128698668</v>
-      </c>
-      <c r="AA3">
-        <v>6.6761882874954255</v>
-      </c>
-      <c r="AB3">
-        <v>6.3033198580866756</v>
-      </c>
-      <c r="AC3">
-        <v>7.3597096723402133</v>
-      </c>
-      <c r="AD3">
-        <v>5.8748026331350021</v>
-      </c>
-      <c r="AE3">
-        <v>5.8524070831683384</v>
-      </c>
-      <c r="AF3">
-        <v>7.3492969162875097</v>
-      </c>
-      <c r="AG3">
-        <v>6.9752283813531211</v>
-      </c>
-      <c r="AH3">
-        <v>7.3655358377372169</v>
-      </c>
-      <c r="AI3">
-        <v>8.0344280277770324</v>
-      </c>
-      <c r="AJ3">
-        <v>5.6753666091020349</v>
-      </c>
-      <c r="AK3">
-        <v>8.7842720902538112</v>
-      </c>
-      <c r="AL3">
-        <v>5.6458228252270874</v>
-      </c>
-      <c r="AM3">
-        <v>4.0442631399649915</v>
-      </c>
-      <c r="AN3">
-        <v>9.9670937267141468</v>
-      </c>
       <c r="AO3">
-        <v>4.9392106248346561</v>
+        <v>4.9392106701275083</v>
       </c>
       <c r="AP3">
-        <v>5.43774964306259</v>
+        <v>5.4377496506968024</v>
       </c>
       <c r="AQ3">
-        <v>4.412529969086977</v>
+        <v>4.4125299748362021</v>
       </c>
       <c r="AR3">
-        <v>3.1775526101112952</v>
+        <v>3.1775525991108506</v>
       </c>
       <c r="AS3">
-        <v>6.7880592591736955</v>
+        <v>6.7880592554722483</v>
       </c>
       <c r="AT3">
-        <v>3.0901185305037515</v>
+        <v>3.0901185509130071</v>
       </c>
       <c r="AU3">
-        <v>6.5257452062997672</v>
+        <v>6.5257452660450186</v>
       </c>
       <c r="AV3">
-        <v>5.874961730002787</v>
+        <v>5.8749617519165254</v>
       </c>
       <c r="AW3">
-        <v>8.3161714802341251</v>
+        <v>8.316171704519304</v>
       </c>
       <c r="AX3">
-        <v>7.5274658567000703</v>
+        <v>7.5274659122714915</v>
       </c>
       <c r="AY3">
-        <v>1.5031969168016626</v>
+        <v>1.5031969281304229</v>
       </c>
     </row>
   </sheetData>
